--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_Recall.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_Recall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6F1F0-7085-4908-B0E9-5B429F25D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131C372C-C134-480F-BDB4-A64CF83793BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Keyword</t>
   </si>
@@ -166,22 +166,10 @@
     <t>getData=Report</t>
   </si>
   <si>
-    <t>button_recall</t>
-  </si>
-  <si>
-    <t>RecallButton</t>
-  </si>
-  <si>
-    <t>getData=RecallButton</t>
-  </si>
-  <si>
     <t>smallWaitForElementPresent</t>
   </si>
   <si>
     <t>getData=WaitForPageLoad</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -283,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,13 +590,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -714,26 +702,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -754,16 +730,6 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476CA35-691B-4A94-952A-7B45B4B2A990}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,10 +759,9 @@
     <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,11 +798,8 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -858,9 +820,6 @@
       </c>
       <c r="K2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
